--- a/data/trans_dic/P02E$otras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01468788378258363</v>
+        <v>0.01456117977197755</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03279512983765393</v>
+        <v>0.03235625025728663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06353935913859066</v>
+        <v>0.06305791500254607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0206591592217526</v>
+        <v>0.02056608766116763</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02920371638972405</v>
+        <v>0.02888782190568581</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1123489198517767</v>
+        <v>0.1161899262671606</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02430920414212335</v>
+        <v>0.02475596761207841</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03609121574744201</v>
+        <v>0.03683912444938046</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1089101277867941</v>
+        <v>0.1072297917415725</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1307381041116059</v>
+        <v>0.1173100906215178</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.136694646946027</v>
+        <v>0.13971203304748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2201302814448151</v>
+        <v>0.2286611666134044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1195368089217297</v>
+        <v>0.1226457036388925</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1105953262764819</v>
+        <v>0.1109233955736003</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2694679352157813</v>
+        <v>0.2706495748848173</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09822765164129307</v>
+        <v>0.1027367162742061</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1035570617723271</v>
+        <v>0.1051650145795014</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2155188357557926</v>
+        <v>0.2153732228230541</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01433548826219602</v>
+        <v>0.01495744621900464</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01516518808006011</v>
+        <v>0.01483341044190579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01252708239839047</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08995459356966079</v>
+        <v>0.0921762898405252</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01972503110025322</v>
+        <v>0.01942354294204921</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03022757766140396</v>
+        <v>0.03002363355851055</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07818565146858539</v>
+        <v>0.07685337093842633</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02658934580314761</v>
+        <v>0.02638061257026218</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0284197616019156</v>
+        <v>0.03248379141044051</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1393536095006034</v>
+        <v>0.1462736914235385</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09058403521389621</v>
+        <v>0.08370589345162741</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1044099450774029</v>
+        <v>0.09508920858421986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2145340045598712</v>
+        <v>0.2104364138321472</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07507800107116666</v>
+        <v>0.07818761387092474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.113931227485286</v>
+        <v>0.1191435568076008</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.166960818674315</v>
+        <v>0.1678070576327819</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07159630188457201</v>
+        <v>0.07007119311698846</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09377411121368115</v>
+        <v>0.09342498067972679</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03198793725962419</v>
+        <v>0.03032728827214369</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01996006237656578</v>
+        <v>0.0203477036253241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0142193085755744</v>
+        <v>0.01420350089300694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009396612038590154</v>
+        <v>0.009411719301698637</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04376489467891873</v>
+        <v>0.04545335656464831</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05078365040637395</v>
+        <v>0.04835642624615485</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02944214663358256</v>
+        <v>0.02937153182851229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04116511585399693</v>
+        <v>0.04235495617397039</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0449126175240523</v>
+        <v>0.04427388492570985</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1779723842743295</v>
+        <v>0.1782677182345293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1137521871719895</v>
+        <v>0.1185135714236365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1182724270765907</v>
+        <v>0.129388121393022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09151218216222402</v>
+        <v>0.08398215746083058</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1412389069634704</v>
+        <v>0.1425525219977264</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2001466464968827</v>
+        <v>0.1928979174229192</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1063819720256518</v>
+        <v>0.09996493424666401</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1122788068551627</v>
+        <v>0.1103638545109806</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1384549829903352</v>
+        <v>0.1386209916480443</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05351381675565636</v>
+        <v>0.04531850842747546</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03857652659094956</v>
+        <v>0.04577417973337289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03186059719528866</v>
+        <v>0.03245775180194307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05794354394232289</v>
+        <v>0.05726938859572273</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06919494101882603</v>
+        <v>0.06821954073545661</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02005668582286169</v>
+        <v>0.02291604127692591</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06448498218516312</v>
+        <v>0.0662954015869105</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06856923031312526</v>
+        <v>0.06877291018303791</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03195103873149289</v>
+        <v>0.03257358649423504</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1809087817944496</v>
+        <v>0.1762021889474295</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1729774070371027</v>
+        <v>0.1849950636818066</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1714113777843657</v>
+        <v>0.1716688621990438</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1770768878432908</v>
+        <v>0.1740929174108354</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1634354876069514</v>
+        <v>0.1667005731413377</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1039734245589571</v>
+        <v>0.1095075204002478</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1510413009869468</v>
+        <v>0.1531272985986353</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1500485118457138</v>
+        <v>0.1449547503599572</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1002869408907276</v>
+        <v>0.1026521808657006</v>
       </c>
     </row>
     <row r="16">
@@ -1114,26 +1114,26 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01864964548997144</v>
+        <v>0.02057291894910679</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05061680472350628</v>
+        <v>0.05008872667497952</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02335037150568338</v>
+        <v>0.03050521988663363</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01198960063896181</v>
+        <v>0.0133974314213822</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04955145273851232</v>
+        <v>0.04811405391511996</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01491930606384371</v>
+        <v>0.01494542366140998</v>
       </c>
     </row>
     <row r="18">
@@ -1144,29 +1144,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1743406889442717</v>
+        <v>0.1810393461428105</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1754055063716368</v>
+        <v>0.187693299385459</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.1274207173864483</v>
+        <v>0.1266292159421475</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1680510108564205</v>
+        <v>0.178523342510271</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1450648088616483</v>
+        <v>0.1508110897172331</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1085482757265562</v>
+        <v>0.1144257532792439</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.144691569704065</v>
+        <v>0.1443839660711367</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07780459577780614</v>
+        <v>0.08008460333029017</v>
       </c>
     </row>
     <row r="19">
@@ -1216,16 +1216,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03333584284634386</v>
+        <v>0.03271753488105528</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01090842132187443</v>
+        <v>0.01066379317407859</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01500837590375614</v>
+        <v>0.01491773600905705</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03805588442963405</v>
+        <v>0.03889848114545612</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01008527091574122</v>
+        <v>0.009444841800576987</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2308420595559148</v>
+        <v>0.2069849142603681</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09532287780415626</v>
+        <v>0.09434115743413157</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09030724505804298</v>
+        <v>0.08950149617589775</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1488013019522044</v>
+        <v>0.1358418452990874</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06737502015741501</v>
+        <v>0.06588947321325513</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08413114493623776</v>
+        <v>0.08712185346775009</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.138579982185059</v>
+        <v>0.1470603075903739</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05924438072188307</v>
+        <v>0.05509341265728417</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05970513280458136</v>
+        <v>0.05396598875914039</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05356302116173962</v>
+        <v>0.05503114797308565</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02610599247189441</v>
+        <v>0.02631203240403188</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01902695850465954</v>
+        <v>0.02535869596655682</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01460487559967084</v>
+        <v>0.01440932313285041</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08781043476448093</v>
+        <v>0.08636232526914014</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02298948538691818</v>
+        <v>0.02298453714354367</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02722324635814568</v>
+        <v>0.02717668411627723</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07226365436628322</v>
+        <v>0.07280485476691324</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1814941256964725</v>
+        <v>0.1786653352388062</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08798353450121298</v>
+        <v>0.08625270155863143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1093155639412115</v>
+        <v>0.1079202741780807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03082459069938865</v>
+        <v>0.03077090415982871</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05766945090625629</v>
+        <v>0.05398125052612872</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1884218043594938</v>
+        <v>0.1909097034785629</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06780975423318795</v>
+        <v>0.06674746496934959</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06110744661376302</v>
+        <v>0.06137809796555337</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1409917718581281</v>
+        <v>0.1453507372737241</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04027391532530952</v>
+        <v>0.03743016610728137</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009360657051977696</v>
+        <v>0.01214120305404093</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0277610380916682</v>
+        <v>0.03016188687213876</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02909541339158259</v>
+        <v>0.02631682344896915</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01690105873136545</v>
+        <v>0.017661258831917</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06181730168149903</v>
+        <v>0.05889197477038195</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04018727942570611</v>
+        <v>0.04016144771845966</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0191890804853138</v>
+        <v>0.0185591646846473</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05346185954149753</v>
+        <v>0.05313535072428782</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1396667579985966</v>
+        <v>0.1370981014336621</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05747234646011593</v>
+        <v>0.05993655755887559</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08772018862982965</v>
+        <v>0.09241942624995839</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09235625287553348</v>
+        <v>0.09252385827858872</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05698221333603253</v>
+        <v>0.05772372024785716</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1251694627090469</v>
+        <v>0.1283324952272436</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0993248553360883</v>
+        <v>0.09674448836845752</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0480199331016103</v>
+        <v>0.05103359915001944</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09860467275389113</v>
+        <v>0.09638240111074103</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03737351098629013</v>
+        <v>0.03664899180784512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07669328221031403</v>
+        <v>0.07859561877848308</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04458375687105001</v>
+        <v>0.04470865904178326</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06509827507816755</v>
+        <v>0.06535864292016802</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06835132245620834</v>
+        <v>0.06987524625184713</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1140096308811253</v>
+        <v>0.114505053730915</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06299831746736763</v>
+        <v>0.06297178081527088</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.09032429542492347</v>
+        <v>0.09078226656608492</v>
       </c>
     </row>
     <row r="31">
@@ -1835,31 +1835,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2916</v>
+        <v>2877</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4692</v>
+        <v>4657</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2154</v>
+        <v>2144</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4117</v>
+        <v>4072</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11094</v>
+        <v>11473</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4109</v>
+        <v>4184</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8297</v>
+        <v>8469</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18797</v>
+        <v>18507</v>
       </c>
     </row>
     <row r="7">
@@ -1870,31 +1870,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8466</v>
+        <v>7597</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12154</v>
+        <v>12423</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16256</v>
+        <v>16886</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12463</v>
+        <v>12787</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15590</v>
+        <v>15636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26608</v>
+        <v>26725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16602</v>
+        <v>17364</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23806</v>
+        <v>24176</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37197</v>
+        <v>37171</v>
       </c>
     </row>
     <row r="8">
@@ -1979,31 +1979,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>989</v>
+        <v>1032</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1963</v>
+        <v>1920</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12410</v>
+        <v>12716</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4187</v>
+        <v>4123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4053</v>
+        <v>4026</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16183</v>
+        <v>15907</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9085</v>
+        <v>9014</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6082</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="11">
@@ -2014,31 +2014,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9618</v>
+        <v>10096</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11722</v>
+        <v>10832</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8345</v>
+        <v>7600</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29596</v>
+        <v>29031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15936</v>
+        <v>16596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15277</v>
+        <v>15976</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34557</v>
+        <v>34732</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24463</v>
+        <v>23942</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20068</v>
+        <v>19994</v>
       </c>
     </row>
     <row r="12">
@@ -2123,31 +2123,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2227</v>
+        <v>2112</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1866</v>
+        <v>1902</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6117</v>
+        <v>6353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4076</v>
+        <v>3881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5147</v>
+        <v>5135</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9602</v>
+        <v>9880</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6294</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="15">
@@ -2158,31 +2158,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12392</v>
+        <v>12412</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10634</v>
+        <v>11079</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7082</v>
+        <v>7747</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9626</v>
+        <v>8834</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19742</v>
+        <v>19926</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16063</v>
+        <v>15482</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18597</v>
+        <v>17476</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26190</v>
+        <v>25743</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19402</v>
+        <v>19426</v>
       </c>
     </row>
     <row r="16">
@@ -2267,31 +2267,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4577</v>
+        <v>3876</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4289</v>
+        <v>5090</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1886</v>
+        <v>1922</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6765</v>
+        <v>6686</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12514</v>
+        <v>12338</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2377</v>
+        <v>2716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13044</v>
+        <v>13410</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20025</v>
+        <v>20085</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5679</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="19">
@@ -2302,31 +2302,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15472</v>
+        <v>15070</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19234</v>
+        <v>20570</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10149</v>
+        <v>10165</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20673</v>
+        <v>20325</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29558</v>
+        <v>30148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12323</v>
+        <v>12979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30552</v>
+        <v>30974</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43821</v>
+        <v>42333</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17824</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="20">
@@ -2414,26 +2414,26 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4679</v>
+        <v>4630</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1960</v>
+        <v>2561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1006</v>
+        <v>1125</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7302</v>
+        <v>7091</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2333</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="23">
@@ -2444,29 +2444,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5403</v>
+        <v>5610</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9636</v>
+        <v>10311</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>6748</v>
+        <v>6706</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15534</v>
+        <v>16502</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12177</v>
+        <v>12659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9112</v>
+        <v>9606</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21323</v>
+        <v>21278</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12166</v>
+        <v>12523</v>
       </c>
     </row>
     <row r="24">
@@ -2551,16 +2551,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1984</v>
+        <v>1947</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4901</v>
+        <v>5010</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1938</v>
+        <v>1815</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2586,31 +2586,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13741</v>
+        <v>12321</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7821</v>
+        <v>7741</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5668</v>
+        <v>5617</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10306</v>
+        <v>9409</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7421</v>
+        <v>7258</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5884</v>
+        <v>6093</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17847</v>
+        <v>18939</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11387</v>
+        <v>10589</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7923</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="28">
@@ -2695,31 +2695,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5975</v>
+        <v>6139</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5606</v>
+        <v>5650</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2330</v>
+        <v>3106</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4143</v>
+        <v>4087</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>17892</v>
+        <v>17597</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7679</v>
+        <v>7677</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>13568</v>
+        <v>13544</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23574</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="31">
@@ -2730,31 +2730,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20247</v>
+        <v>19931</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18893</v>
+        <v>18521</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13388</v>
+        <v>13217</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6857</v>
+        <v>6845</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16358</v>
+        <v>15312</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>38392</v>
+        <v>38898</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22649</v>
+        <v>22294</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>30455</v>
+        <v>30590</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>45994</v>
+        <v>47416</v>
       </c>
     </row>
     <row r="32">
@@ -2839,31 +2839,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5445</v>
+        <v>5060</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1967</v>
+        <v>2551</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6278</v>
+        <v>6821</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>5731</v>
+        <v>5184</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6030</v>
+        <v>6301</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>19889</v>
+        <v>18948</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13349</v>
+        <v>13341</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10878</v>
+        <v>10521</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>29291</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="35">
@@ -2874,31 +2874,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18882</v>
+        <v>18535</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12074</v>
+        <v>12592</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>19838</v>
+        <v>20901</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>18193</v>
+        <v>18226</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>20331</v>
+        <v>20595</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>40272</v>
+        <v>41290</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>32994</v>
+        <v>32137</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>27222</v>
+        <v>28930</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>54025</v>
+        <v>52807</v>
       </c>
     </row>
     <row r="36">
@@ -2983,31 +2983,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>28279</v>
+        <v>27731</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>85205</v>
+        <v>87318</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>111535</v>
+        <v>111848</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>121581</v>
+        <v>122067</v>
       </c>
     </row>
     <row r="39">
@@ -3018,31 +3018,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>51719</v>
+        <v>52872</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>126663</v>
+        <v>127213</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>157603</v>
+        <v>157537</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>168694</v>
+        <v>169550</v>
       </c>
     </row>
     <row r="40">
